--- a/results/mp/tinybert/corona/confidence/168/desired-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/desired-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,115 +49,106 @@
     <t>fraud</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>share</t>
@@ -518,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,10 +517,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -587,13 +578,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.96</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -637,13 +628,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8441558441558441</v>
+        <v>0.7842465753424658</v>
       </c>
       <c r="C4">
-        <v>130</v>
+        <v>229</v>
       </c>
       <c r="D4">
-        <v>130</v>
+        <v>229</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -655,19 +646,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -679,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -687,13 +678,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -705,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -729,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -737,13 +728,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7619047619047619</v>
+        <v>0.2054263565891473</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -755,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>410</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.95</v>
+        <v>0.9574468085106383</v>
       </c>
       <c r="L6">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M6">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -787,13 +778,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5357142857142857</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -805,219 +796,123 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="L7">
+        <v>34</v>
+      </c>
+      <c r="M7">
+        <v>34</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="L8">
+        <v>42</v>
+      </c>
+      <c r="M8">
+        <v>42</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>0.9017857142857143</v>
+      </c>
+      <c r="L9">
+        <v>101</v>
+      </c>
+      <c r="M9">
+        <v>101</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10">
+        <v>0.8974358974358975</v>
+      </c>
+      <c r="L10">
+        <v>35</v>
+      </c>
+      <c r="M10">
+        <v>35</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K7">
-        <v>0.9375</v>
-      </c>
-      <c r="L7">
-        <v>15</v>
-      </c>
-      <c r="M7">
-        <v>15</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.3991416309012876</v>
-      </c>
-      <c r="C8">
-        <v>93</v>
-      </c>
-      <c r="D8">
-        <v>93</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>140</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="L8">
-        <v>50</v>
-      </c>
-      <c r="M8">
-        <v>50</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.375</v>
-      </c>
-      <c r="C9">
-        <v>30</v>
-      </c>
-      <c r="D9">
-        <v>30</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>50</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L9">
-        <v>24</v>
-      </c>
-      <c r="M9">
-        <v>24</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.2093023255813954</v>
-      </c>
-      <c r="C10">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>68</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L10">
-        <v>48</v>
-      </c>
-      <c r="M10">
-        <v>48</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.1636363636363636</v>
-      </c>
-      <c r="C11">
-        <v>18</v>
-      </c>
-      <c r="D11">
-        <v>18</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>92</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="K11">
-        <v>0.8823529411764706</v>
+        <v>0.8780487804878049</v>
       </c>
       <c r="L11">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="M11">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1029,21 +924,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.8823529411764706</v>
+        <v>0.875</v>
       </c>
       <c r="L12">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="M12">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1055,21 +950,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.8823529411764706</v>
+        <v>0.875</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1081,21 +976,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.8793103448275862</v>
+        <v>0.852112676056338</v>
       </c>
       <c r="L14">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="M14">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1107,21 +1002,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.875</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1133,21 +1028,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L16">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1164,16 +1059,16 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.84</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L17">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1185,21 +1080,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.84</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L18">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="M18">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1211,21 +1106,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.8275862068965517</v>
+        <v>0.78</v>
       </c>
       <c r="L19">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1237,21 +1132,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.8181818181818182</v>
+        <v>0.76875</v>
       </c>
       <c r="L20">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="M20">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1263,21 +1158,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.8075117370892019</v>
+        <v>0.7467362924281984</v>
       </c>
       <c r="L21">
-        <v>172</v>
+        <v>286</v>
       </c>
       <c r="M21">
-        <v>172</v>
+        <v>286</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1289,21 +1184,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>41</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.7945205479452054</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="L22">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1315,21 +1210,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.7894736842105263</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L23">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="M23">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1341,21 +1236,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.7692307692307693</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L24">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="M24">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1367,21 +1262,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.7391304347826086</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="L25">
-        <v>68</v>
+        <v>200</v>
       </c>
       <c r="M25">
-        <v>68</v>
+        <v>200</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1393,21 +1288,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>24</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.7272727272727273</v>
+        <v>0.625</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1419,21 +1314,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.7209302325581395</v>
+        <v>0.625</v>
       </c>
       <c r="L27">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="M27">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1445,21 +1340,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.7</v>
+        <v>0.6147058823529412</v>
       </c>
       <c r="L28">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="M28">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1471,21 +1366,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.6319444444444444</v>
+        <v>0.6025641025641025</v>
       </c>
       <c r="L29">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="M29">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1497,21 +1392,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.6071428571428571</v>
+        <v>0.6</v>
       </c>
       <c r="L30">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1523,21 +1418,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>0.5675675675675675</v>
+        <v>0.5955056179775281</v>
       </c>
       <c r="L31">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="M31">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1549,21 +1444,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>0.5428571428571428</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L32">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M32">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1575,21 +1470,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>0.4736842105263158</v>
+        <v>0.5146443514644351</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1601,7 +1496,33 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>20</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K34">
+        <v>0.3857142857142857</v>
+      </c>
+      <c r="L34">
+        <v>27</v>
+      </c>
+      <c r="M34">
+        <v>27</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
